--- a/biology/Médecine/Académie_royale_de_médecine_de_Belgique/Académie_royale_de_médecine_de_Belgique.xlsx
+++ b/biology/Médecine/Académie_royale_de_médecine_de_Belgique/Académie_royale_de_médecine_de_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
+          <t>Académie_royale_de_médecine_de_Belgique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie royale de médecine de Belgique, fondée le 19 septembre 1841 par arrêté royal du roi Léopold Ier, est une académie regroupant des scientifiques belges. Elle siège à Bruxelles au palais des Académies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
+          <t>Académie_royale_de_médecine_de_Belgique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie royale de médecine est un établissement public fondée le 19 septembre 1841 par arrêté royal du roi Léopold Ier sur la proposition de Jean-Baptiste Nothomb. Parmi les fondateurs se trouvent Victor-Joseph François, professeur à la faculté de médecine de l'université catholique de Louvain, et Louis Seutin (1793-1862), professeur à la faculté de médecine de l'Université libre de Bruxelles. L'académie va dépendre du ministère de l'intérieur dont J.B Nothomb avait la charge. Elle possède, depuis 1924, une personnalité civile tandis que la gestion de son patrimoine est régie par un arrêté royal de 1925. L'académie devint un organe consultatif du ministère de la santé à la création de celui-ci, en 1936. Dans les années 1989-1990, elle va être rattachée administrativement aux services du Gouvernement de la Communauté française de Belgique. Les statuts de l'institution dépendent d'un arrêté du Gouvernement de la Communauté française du 19 décembre 2013 et elle est placée sous la protection du Roi.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
+          <t>Académie_royale_de_médecine_de_Belgique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie royale de Médecine de Belgique se veut avant tout un centre de travail, de réflexion, d'échange d'idées, un creuset de la pensée scientifique médicale, ainsi qu'un organe consultatif auquel les instances gouvernementales peuvent ou doivent se référer. La sphère de compétence de l’Académie s’étend à tous les domaines de la médecine humaine et animale, de la pharmacie et aux domaines connexes. Elle joue le rôle de conseil des autorités belges, ainsi qu'aux associations et individus compétents. Dans ce but, elle rédige des rapports, études ou avis qui peuvent être publiés. Elle soutient l’activité scientifique dans ces domaines. Au travers de ses séances mensuelles, elle offre une tribune aux conférences, débats et échanges scientifiques, publie les résultats de la recherche scientifique et octroie des Prix récompensant des chercheurs dont les travaux ont été distingués. Elle entretient des contacts internationaux, notamment via ses publications et sa participation à des initiatives scientifiques internationales.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
+          <t>Académie_royale_de_médecine_de_Belgique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les activités habituelles de l'Académie royale de médecine comportent :
 l'organisation de ces réunions plénières mensuelles ainsi que de séances de remise des distinctions aux lauréats des prix académiques et de symposia ou autres séances de travail ;
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
+          <t>Académie_royale_de_médecine_de_Belgique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie royale de médecine est sous l'autorité d’un « Bureau » constitué d’un Président, d’un Secrétaire perpétuel (qui assure l’administration de l’Académie), de deux vice-présidents et de deux assesseurs. Deux représentants des membres ordinaires siègent également au Bureau avec voix consultative. Le Président et les deux vice-présidents sont élus, pour un an, parmi et par les membres titulaires. Le secrétaire perpétuel est nommé par le gouvernement de la communauté française, sur proposition des membres titulaires pour un mandat de cinq ans. Le Secrétaire perpétuel a le droit d'effectuer un 2e mandat de cinq ans. Si le secrétaire perpétuel atteint l'âge de 75 ans, son mandat prend fin le jour de son anniversaire.
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
+          <t>Académie_royale_de_médecine_de_Belgique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'Académie est divisée en six sections couvrant les divers domaines de la médecine (humaine et animales). Elle comporte six catégories de membres pour lesquelles diverses limites d’âge ont été fixées :
 Les membres titulaires (40)
@@ -649,9 +671,43 @@
 Les membres honoraires
 Les membres honoris causa
 Les membres étrangers (90)
-Les membres étrangers honoraires.
-Membres (à travers les années)
-A : Maurice Abramow, Adelin Albert, Armand André, Luc Angenot, Michel Ansay
+Les membres étrangers honoraires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Académie_royale_de_médecine_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Membres (à travers les années)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A : Maurice Abramow, Adelin Albert, Armand André, Luc Angenot, Michel Ansay
 B : Danielle Baleriaux, Jean-Luc Balligand, Henri Beaufay, Jean-François Beckers, Roland Bernard, Jacques Berthet, Émile Betz, Jean-Marie Boeynaems, Jacques Boniver, Joël Bonnal, Thierry Boon, Jacques Born, Jean Bosly, Antoine Bremer, Jean-Pierre Brion, Dominique Bron, Baron Jacques Brotchi, Arsène Burny.
 C : Patrice D. Cani, Yves Carlier, Georges Casimir, Charles Chalant, Jean Christophe, Nathan Clumeck, Miriam Cnop, Éric Constant, Jean Content, Guy Cornelis, P. Coulie, Marc Crommelinck, Jacques Crommen.
 D : Baron Thierry de Barsy, Vicomte Christian de Duve, Jean Defraigne, Marie-Paule Defresne,Jean-Paul Dehaye, Luc Delattre, Christian Delloye, Jean-Claude Demanet, Baron Albert de Scoville, Jean Desmedt, André de Troyer, Olivier Devuyst, Jacques Donnez, Albert Dresse, Jacques Dumont, Pierre Dumont, Louis Deroubaix.
@@ -673,31 +729,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Académie_royale_de_médecine_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acad%C3%A9mie_royale_de_m%C3%A9decine_de_Belgique</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Quelques anciens membres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
